--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Belen Solar SpA</t>
+          <t>Belén Solar SpA</t>
         </is>
       </c>
       <c r="F24" t="n">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Exportadora de Mostos y Vinos Jucosol S.A.</t>
+          <t>Exportadora de mostos y vinos Jucosol S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J333"/>
+  <dimension ref="A1:J334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16354,6 +16354,50 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Planta de Tratamiento de Aguas Servida de Sarmiento, Mejoramiento y Ampliación</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Claudio Hernán Espinoza Sobarzo</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>En Admisión</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156650539&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Curicó</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO Y ACTUALIZACIÓN INSTALACIONES AGROPECUARIAS LOS CASTAÑOS</t>
+          <t>Extracción de Áridos Lo Valdivia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGRICOLA SOLER CORTINA S.A</t>
+          <t>ARIDOS LO VALDIVIA LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2350</v>
+        <v>147</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156819912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Lo Valdivia</t>
+          <t>MEJORAMIENTO Y ACTUALIZACIÓN INSTALACIONES AGROPECUARIAS LOS CASTAÑOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ARIDOS LO VALDIVIA LIMITADA</t>
+          <t>AGRICOLA SOLER CORTINA S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>147</v>
+        <v>2350</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156819912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -16480,7 +16480,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Lo Valdivia</t>
+          <t>MEJORAMIENTO Y ACTUALIZACIÓN INSTALACIONES AGROPECUARIAS LOS CASTAÑOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ARIDOS LO VALDIVIA LIMITADA</t>
+          <t>AGRICOLA SOLER CORTINA S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>147</v>
+        <v>2350</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156819912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO Y ACTUALIZACIÓN INSTALACIONES AGROPECUARIAS LOS CASTAÑOS</t>
+          <t>Extracción de Áridos Lo Valdivia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGRICOLA SOLER CORTINA S.A</t>
+          <t>ARIDOS LO VALDIVIA LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2350</v>
+        <v>147</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156819912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/11/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>23/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/04/2023</t>
+          <t>17/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODERNIZACION DE AREAS Y EQUIPOS DE CURTIEMBRE RUFINO MELERO PLANTA CURICÓ</t>
+          <t>Modernización de Áreas y Equipos de Curtiembre Rufino Melero Planta Curicó</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160057180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/09/2023</t>
+          <t>13/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160057180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160057180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160057180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160038130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO Y ACTUALIZACIÓN INSTALACIONES AGROPECUARIAS LOS CASTAÑOS</t>
+          <t>Mejoramiento y Actualización Instalaciones Agropecuarias Los Castaños</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16667,7 +16667,7 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16667,7 +16667,7 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Curicó.xlsx
+++ b/data/Curicó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Petromax S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Extracción y Procesamiento de Áridos - Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes Petromax S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ROCOFRUT S.A.</t>
+          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PROCESADORA DE FRUTAS ,FRUTICOLA LEON LIMITADA (FRULE LTDA)</t>
+          <t>Nuevo Sistema de Tratamiento de Riles, Rocofrut S.A.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad agrícola y frutícola León limitada (FRULE LTDA)</t>
+          <t>ROCOFRUT S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6932425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7181778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>COMERCIAL AMS FAMILY S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Santa Teresa (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>COMERCIAL AMS FAMILY S.A.</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1940169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Aguas San Pedro S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema Particular de Producción y Distribución de Agua Potable y Recolección y Disposición de Aguas Servidas Loteo Habitacional PARQUE ZAPALLAR, CURICO (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Aguas San Pedro S.A</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
+          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento Aguas Servidas Sector Convento Viejo</t>
+          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Diseño de Alcantarillado y Tratamiento de Aguas Servidas Sector La Obra</t>
+          <t>Alcantarillado y Planta de Tratamiento Aguas Servidas Villorio Cordillera</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16667,7 +16667,7 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>630</v>
+        <v>290</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
